--- a/Planificacion/PLANIFICACIÓN FINAL.xlsx
+++ b/Planificacion/PLANIFICACIÓN FINAL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificación Sprint " sheetId="1" r:id="rId1"/>
@@ -105,9 +105,6 @@
     <t>Bryan Cachimuel</t>
   </si>
   <si>
-    <t>Investigar Maven</t>
-  </si>
-  <si>
     <t>Kevin Endara</t>
   </si>
   <si>
@@ -172,9 +169,6 @@
   </si>
   <si>
     <t>Socialización</t>
-  </si>
-  <si>
-    <t>Socialización de Maven</t>
   </si>
   <si>
     <t>Socialización de GitHub</t>
@@ -333,6 +327,12 @@
   </si>
   <si>
     <t>REPORTE FACTURAS</t>
+  </si>
+  <si>
+    <t>Investigar Laravel</t>
+  </si>
+  <si>
+    <t>Socialización de Laravel</t>
   </si>
 </sst>
 </file>
@@ -993,60 +993,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1061,15 +1007,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1077,9 +1014,6 @@
     <xf numFmtId="0" fontId="20" fillId="19" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1097,17 +1031,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1123,57 +1048,132 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="19" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="19" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="19" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Énfasis1" xfId="6" builtinId="30"/>
@@ -1940,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1958,30 +1958,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="53.25" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="70"/>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="99" t="s">
+      <c r="C2" s="135"/>
+      <c r="D2" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="99"/>
+      <c r="E2" s="144"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
       <c r="H2" s="22"/>
@@ -1991,14 +1991,14 @@
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="71"/>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="98">
+      <c r="C3" s="135"/>
+      <c r="D3" s="139">
         <v>1</v>
       </c>
-      <c r="E3" s="98"/>
+      <c r="E3" s="139"/>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="H3" s="24"/>
@@ -2008,14 +2008,14 @@
     </row>
     <row r="4" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="71"/>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="98" t="s">
+      <c r="C4" s="135"/>
+      <c r="D4" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="98"/>
+      <c r="E4" s="139"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
       <c r="H4" s="24"/>
@@ -2025,14 +2025,14 @@
     </row>
     <row r="5" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="71"/>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="98"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="139" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="139"/>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
       <c r="H5" s="24"/>
@@ -2042,14 +2042,14 @@
     </row>
     <row r="6" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="71"/>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="98">
+      <c r="C6" s="135"/>
+      <c r="D6" s="139">
         <v>4</v>
       </c>
-      <c r="E6" s="98"/>
+      <c r="E6" s="139"/>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
       <c r="H6" s="24"/>
@@ -2059,14 +2059,14 @@
     </row>
     <row r="7" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="71"/>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98">
+      <c r="C7" s="135"/>
+      <c r="D7" s="139">
         <v>64</v>
       </c>
-      <c r="E7" s="98"/>
+      <c r="E7" s="139"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="24"/>
@@ -2076,14 +2076,14 @@
     </row>
     <row r="8" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="71"/>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="103">
+      <c r="C8" s="135"/>
+      <c r="D8" s="140">
         <v>43089</v>
       </c>
-      <c r="E8" s="102"/>
+      <c r="E8" s="136"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="24"/>
@@ -2093,14 +2093,14 @@
     </row>
     <row r="9" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="71"/>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="97"/>
-      <c r="D9" s="103">
+      <c r="C9" s="135"/>
+      <c r="D9" s="140">
         <v>43110</v>
       </c>
-      <c r="E9" s="102"/>
+      <c r="E9" s="136"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="24"/>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="10" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="76" t="s">
         <v>11</v>
@@ -2125,10 +2125,10 @@
         <v>14</v>
       </c>
       <c r="F10" s="78" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G10" s="78" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H10" s="78" t="s">
         <v>15</v>
@@ -2140,14 +2140,14 @@
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="148" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="80" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>19</v>
@@ -2160,19 +2160,19 @@
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I11" s="30"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="91"/>
+      <c r="A12" s="148"/>
       <c r="B12" s="80" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>19</v>
@@ -2185,69 +2185,69 @@
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="91"/>
+      <c r="A13" s="148"/>
       <c r="B13" s="80" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="F13" s="28">
         <v>2</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I13" s="30"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="91"/>
+      <c r="A14" s="148"/>
       <c r="B14" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>26</v>
       </c>
       <c r="F14" s="28">
         <v>2</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I14" s="30"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="91"/>
+      <c r="A15" s="148"/>
       <c r="B15" s="80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>19</v>
@@ -2260,419 +2260,419 @@
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I15" s="30"/>
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="92" t="s">
-        <v>28</v>
+      <c r="A16" s="149" t="s">
+        <v>27</v>
       </c>
       <c r="B16" s="81" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="33" t="s">
         <v>46</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>48</v>
       </c>
       <c r="F16" s="34">
         <v>1</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I16" s="36"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
     </row>
     <row r="17" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="92"/>
+      <c r="A17" s="149"/>
       <c r="B17" s="81" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="32" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="F17" s="34">
         <v>1</v>
       </c>
       <c r="G17" s="35"/>
       <c r="H17" s="35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I17" s="36"/>
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="92"/>
+      <c r="A18" s="149"/>
       <c r="B18" s="81" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="32" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="34">
         <v>1</v>
       </c>
       <c r="G18" s="35"/>
       <c r="H18" s="35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I18" s="36"/>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="93" t="s">
+      <c r="A19" s="150" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="38" t="s">
         <v>30</v>
-      </c>
-      <c r="B19" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>31</v>
       </c>
       <c r="F19" s="39">
         <v>1</v>
       </c>
       <c r="G19" s="40"/>
       <c r="H19" s="40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I19" s="41"/>
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="93"/>
+      <c r="A20" s="150"/>
       <c r="B20" s="82" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="37" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" s="39">
         <v>1</v>
       </c>
       <c r="G20" s="40"/>
       <c r="H20" s="40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I20" s="41"/>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
     </row>
     <row r="21" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="93"/>
+      <c r="A21" s="150"/>
       <c r="B21" s="82" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="37" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" s="39">
         <v>1</v>
       </c>
       <c r="G21" s="40"/>
       <c r="H21" s="40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I21" s="41"/>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="94" t="s">
-        <v>27</v>
+      <c r="A22" s="151" t="s">
+        <v>26</v>
       </c>
       <c r="B22" s="83" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="42" t="s">
         <v>19</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" s="44">
         <v>5</v>
       </c>
       <c r="G22" s="45"/>
       <c r="H22" s="45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I22" s="46"/>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="94"/>
+      <c r="A23" s="151"/>
       <c r="B23" s="83" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="42" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" s="44">
         <v>1</v>
       </c>
       <c r="G23" s="45"/>
       <c r="H23" s="45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I23" s="46"/>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="94"/>
+      <c r="A24" s="151"/>
       <c r="B24" s="83" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" s="42" t="s">
         <v>19</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F24" s="44">
         <v>2</v>
       </c>
       <c r="G24" s="45"/>
       <c r="H24" s="45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I24" s="46"/>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
     </row>
     <row r="25" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="96" t="s">
-        <v>60</v>
+      <c r="A25" s="145" t="s">
+        <v>58</v>
       </c>
       <c r="B25" s="84" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" s="47" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="48" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F25" s="49">
         <v>8</v>
       </c>
       <c r="G25" s="50"/>
       <c r="H25" s="50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I25" s="51"/>
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
     </row>
     <row r="26" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="96"/>
+      <c r="A26" s="145"/>
       <c r="B26" s="84" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="47" t="s">
         <v>19</v>
       </c>
       <c r="E26" s="48" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F26" s="49">
         <v>8</v>
       </c>
       <c r="G26" s="50"/>
       <c r="H26" s="50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I26" s="51"/>
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
     </row>
     <row r="27" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="89" t="s">
-        <v>84</v>
+      <c r="A27" s="146" t="s">
+        <v>82</v>
       </c>
       <c r="B27" s="84" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="47" t="s">
         <v>19</v>
       </c>
       <c r="E27" s="48" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F27" s="49">
         <v>6</v>
       </c>
       <c r="G27" s="50"/>
       <c r="H27" s="50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I27" s="51"/>
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="90"/>
+      <c r="A28" s="147"/>
       <c r="B28" s="84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="47" t="s">
         <v>19</v>
       </c>
       <c r="E28" s="48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F28" s="49">
         <v>5</v>
       </c>
       <c r="G28" s="50"/>
       <c r="H28" s="50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I28" s="51"/>
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="95" t="s">
-        <v>36</v>
+      <c r="A29" s="141" t="s">
+        <v>35</v>
       </c>
       <c r="B29" s="53" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="52" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F29" s="54">
         <v>3</v>
       </c>
       <c r="G29" s="55"/>
       <c r="H29" s="56" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I29" s="57"/>
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="95"/>
+      <c r="A30" s="141"/>
       <c r="B30" s="53" t="s">
         <v>18</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" s="52" t="s">
         <v>19</v>
       </c>
       <c r="E30" s="53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30" s="54">
         <v>4</v>
       </c>
       <c r="G30" s="55"/>
       <c r="H30" s="56" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I30" s="57"/>
       <c r="J30" s="20"/>
       <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="95"/>
+      <c r="A31" s="141"/>
       <c r="B31" s="53" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="53" t="s">
         <v>38</v>
-      </c>
-      <c r="D31" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="53" t="s">
-        <v>39</v>
       </c>
       <c r="F31" s="54">
         <v>4</v>
       </c>
       <c r="G31" s="55"/>
       <c r="H31" s="56" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I31" s="57"/>
       <c r="J31" s="20"/>
@@ -2680,7 +2680,7 @@
     </row>
     <row r="32" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="58"/>
       <c r="C32" s="58"/>
@@ -2701,7 +2701,7 @@
       <c r="C33" s="24"/>
       <c r="D33" s="62"/>
       <c r="E33" s="63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F33" s="64">
         <f>SUM(F11:F32)</f>
@@ -2737,28 +2737,28 @@
     <row r="37" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:11" ht="53.25" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A39" s="87" t="s">
+      <c r="A39" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="88"/>
-      <c r="C39" s="88"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="143"/>
+      <c r="D39" s="143"/>
+      <c r="E39" s="143"/>
+      <c r="F39" s="142"/>
+      <c r="G39" s="142"/>
+      <c r="H39" s="142"/>
+      <c r="I39" s="142"/>
     </row>
     <row r="40" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="70"/>
-      <c r="B40" s="97" t="s">
+      <c r="B40" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="97"/>
-      <c r="D40" s="99" t="s">
+      <c r="C40" s="135"/>
+      <c r="D40" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="99"/>
+      <c r="E40" s="144"/>
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
       <c r="H40" s="22"/>
@@ -2766,14 +2766,14 @@
     </row>
     <row r="41" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="71"/>
-      <c r="B41" s="97" t="s">
+      <c r="B41" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="97"/>
-      <c r="D41" s="98">
+      <c r="C41" s="135"/>
+      <c r="D41" s="139">
         <v>3</v>
       </c>
-      <c r="E41" s="98"/>
+      <c r="E41" s="139"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
       <c r="H41" s="24"/>
@@ -2781,14 +2781,14 @@
     </row>
     <row r="42" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="71"/>
-      <c r="B42" s="97" t="s">
+      <c r="B42" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="97"/>
-      <c r="D42" s="98" t="s">
+      <c r="C42" s="135"/>
+      <c r="D42" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="98"/>
+      <c r="E42" s="139"/>
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
       <c r="H42" s="24"/>
@@ -2796,14 +2796,14 @@
     </row>
     <row r="43" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="71"/>
-      <c r="B43" s="97" t="s">
+      <c r="B43" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="97"/>
-      <c r="D43" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="98"/>
+      <c r="C43" s="135"/>
+      <c r="D43" s="139" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="139"/>
       <c r="F43" s="20"/>
       <c r="G43" s="20"/>
       <c r="H43" s="24"/>
@@ -2811,14 +2811,14 @@
     </row>
     <row r="44" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="71"/>
-      <c r="B44" s="97" t="s">
+      <c r="B44" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="97"/>
-      <c r="D44" s="98">
+      <c r="C44" s="135"/>
+      <c r="D44" s="139">
         <v>4</v>
       </c>
-      <c r="E44" s="98"/>
+      <c r="E44" s="139"/>
       <c r="F44" s="20"/>
       <c r="G44" s="20"/>
       <c r="H44" s="24"/>
@@ -2826,14 +2826,14 @@
     </row>
     <row r="45" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="71"/>
-      <c r="B45" s="97" t="s">
+      <c r="B45" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="97"/>
-      <c r="D45" s="98">
+      <c r="C45" s="135"/>
+      <c r="D45" s="139">
         <v>64</v>
       </c>
-      <c r="E45" s="98"/>
+      <c r="E45" s="139"/>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
       <c r="H45" s="24"/>
@@ -2841,14 +2841,14 @@
     </row>
     <row r="46" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="71"/>
-      <c r="B46" s="97" t="s">
+      <c r="B46" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="97"/>
-      <c r="D46" s="103">
+      <c r="C46" s="135"/>
+      <c r="D46" s="140">
         <v>43111</v>
       </c>
-      <c r="E46" s="102"/>
+      <c r="E46" s="136"/>
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
       <c r="H46" s="24"/>
@@ -2856,14 +2856,14 @@
     </row>
     <row r="47" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="71"/>
-      <c r="B47" s="97" t="s">
+      <c r="B47" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="97"/>
-      <c r="D47" s="103">
+      <c r="C47" s="135"/>
+      <c r="D47" s="140">
         <v>43124</v>
       </c>
-      <c r="E47" s="102"/>
+      <c r="E47" s="136"/>
       <c r="F47" s="20"/>
       <c r="G47" s="20"/>
       <c r="H47" s="24"/>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="48" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="76" t="s">
         <v>11</v>
@@ -2886,10 +2886,10 @@
         <v>14</v>
       </c>
       <c r="F48" s="78" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G48" s="78" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H48" s="78" t="s">
         <v>15</v>
@@ -2899,265 +2899,265 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="111" t="s">
+      <c r="A49" s="126" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="90">
+        <v>6</v>
+      </c>
+      <c r="G49" s="91"/>
+      <c r="H49" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="I49" s="92"/>
+    </row>
+    <row r="50" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="127"/>
+      <c r="B50" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" s="90">
+        <v>6</v>
+      </c>
+      <c r="G50" s="91"/>
+      <c r="H50" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="I50" s="92"/>
+    </row>
+    <row r="51" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="127"/>
+      <c r="B51" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" s="90">
+        <v>6</v>
+      </c>
+      <c r="G51" s="91"/>
+      <c r="H51" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="I51" s="92"/>
+    </row>
+    <row r="52" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="127"/>
+      <c r="B52" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" s="90">
+        <v>6</v>
+      </c>
+      <c r="G52" s="91"/>
+      <c r="H52" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="I52" s="92"/>
+    </row>
+    <row r="53" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="127"/>
+      <c r="B53" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53" s="90">
+        <v>6</v>
+      </c>
+      <c r="G53" s="91"/>
+      <c r="H53" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="I53" s="92"/>
+    </row>
+    <row r="54" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="127"/>
+      <c r="B54" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="105" t="s">
+      <c r="F54" s="90">
+        <v>6</v>
+      </c>
+      <c r="G54" s="91"/>
+      <c r="H54" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="I54" s="92"/>
+    </row>
+    <row r="55" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="127"/>
+      <c r="B55" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="106" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="F49" s="108">
+      <c r="C55" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="F55" s="90">
         <v>6</v>
       </c>
-      <c r="G49" s="109"/>
-      <c r="H49" s="109" t="s">
-        <v>74</v>
-      </c>
-      <c r="I49" s="110"/>
-    </row>
-    <row r="50" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="112"/>
-      <c r="B50" s="105" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" s="106" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="E50" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="F50" s="108">
+      <c r="G55" s="91"/>
+      <c r="H55" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="I55" s="92"/>
+    </row>
+    <row r="56" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="128"/>
+      <c r="B56" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="F56" s="90">
         <v>6</v>
       </c>
-      <c r="G50" s="109"/>
-      <c r="H50" s="109" t="s">
-        <v>74</v>
-      </c>
-      <c r="I50" s="110"/>
-    </row>
-    <row r="51" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="112"/>
-      <c r="B51" s="105" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="106" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="F51" s="108">
-        <v>6</v>
-      </c>
-      <c r="G51" s="109"/>
-      <c r="H51" s="109" t="s">
-        <v>74</v>
-      </c>
-      <c r="I51" s="110"/>
-    </row>
-    <row r="52" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="112"/>
-      <c r="B52" s="105" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" s="106" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="F52" s="108">
-        <v>6</v>
-      </c>
-      <c r="G52" s="109"/>
-      <c r="H52" s="109" t="s">
-        <v>74</v>
-      </c>
-      <c r="I52" s="110"/>
-    </row>
-    <row r="53" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="112"/>
-      <c r="B53" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="106" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="E53" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="F53" s="108">
-        <v>6</v>
-      </c>
-      <c r="G53" s="109"/>
-      <c r="H53" s="109" t="s">
-        <v>74</v>
-      </c>
-      <c r="I53" s="110"/>
-    </row>
-    <row r="54" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="112"/>
-      <c r="B54" s="105" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" s="106" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="107" t="s">
-        <v>86</v>
-      </c>
-      <c r="F54" s="108">
-        <v>6</v>
-      </c>
-      <c r="G54" s="109"/>
-      <c r="H54" s="109" t="s">
-        <v>74</v>
-      </c>
-      <c r="I54" s="110"/>
-    </row>
-    <row r="55" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="112"/>
-      <c r="B55" s="105" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55" s="106" t="s">
-        <v>27</v>
-      </c>
-      <c r="D55" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="E55" s="107" t="s">
-        <v>64</v>
-      </c>
-      <c r="F55" s="108">
-        <v>6</v>
-      </c>
-      <c r="G55" s="109"/>
-      <c r="H55" s="109" t="s">
-        <v>74</v>
-      </c>
-      <c r="I55" s="110"/>
-    </row>
-    <row r="56" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="113"/>
-      <c r="B56" s="105" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" s="106" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" s="107" t="s">
-        <v>64</v>
-      </c>
-      <c r="F56" s="108">
-        <v>6</v>
-      </c>
-      <c r="G56" s="109"/>
-      <c r="H56" s="109" t="s">
-        <v>74</v>
-      </c>
-      <c r="I56" s="110"/>
+      <c r="G56" s="91"/>
+      <c r="H56" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="I56" s="92"/>
     </row>
     <row r="57" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="95" t="s">
-        <v>36</v>
+      <c r="A57" s="141" t="s">
+        <v>35</v>
       </c>
       <c r="B57" s="53" t="s">
         <v>18</v>
       </c>
       <c r="C57" s="52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D57" s="52" t="s">
         <v>19</v>
       </c>
       <c r="E57" s="53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F57" s="54">
         <v>6</v>
       </c>
       <c r="G57" s="55"/>
       <c r="H57" s="56" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I57" s="57"/>
     </row>
     <row r="58" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="95"/>
+      <c r="A58" s="141"/>
       <c r="B58" s="53" t="s">
         <v>18</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D58" s="52" t="s">
         <v>19</v>
       </c>
       <c r="E58" s="53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F58" s="54">
         <v>4</v>
       </c>
       <c r="G58" s="55"/>
       <c r="H58" s="56" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I58" s="57"/>
     </row>
     <row r="59" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="95"/>
+      <c r="A59" s="141"/>
       <c r="B59" s="53" t="s">
         <v>18</v>
       </c>
       <c r="C59" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="53" t="s">
         <v>38</v>
-      </c>
-      <c r="D59" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="E59" s="53" t="s">
-        <v>39</v>
       </c>
       <c r="F59" s="54">
         <v>4</v>
       </c>
       <c r="G59" s="55"/>
       <c r="H59" s="56" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I59" s="57"/>
     </row>
     <row r="60" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B60" s="58"/>
       <c r="C60" s="58"/>
@@ -3176,7 +3176,7 @@
       <c r="C61" s="24"/>
       <c r="D61" s="62"/>
       <c r="E61" s="63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F61" s="64">
         <f>SUM(F49:F60)</f>
@@ -3191,28 +3191,28 @@
     </row>
     <row r="66" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="67" spans="1:9" ht="53.25" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A67" s="87" t="s">
+      <c r="A67" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="88"/>
-      <c r="C67" s="88"/>
-      <c r="D67" s="88"/>
-      <c r="E67" s="88"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="H67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="B67" s="143"/>
+      <c r="C67" s="143"/>
+      <c r="D67" s="143"/>
+      <c r="E67" s="143"/>
+      <c r="F67" s="142"/>
+      <c r="G67" s="142"/>
+      <c r="H67" s="142"/>
+      <c r="I67" s="142"/>
     </row>
     <row r="68" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="70"/>
-      <c r="B68" s="97" t="s">
+      <c r="B68" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="97"/>
-      <c r="D68" s="99" t="s">
+      <c r="C68" s="135"/>
+      <c r="D68" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="99"/>
+      <c r="E68" s="144"/>
       <c r="F68" s="20"/>
       <c r="G68" s="20"/>
       <c r="H68" s="22"/>
@@ -3220,14 +3220,14 @@
     </row>
     <row r="69" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="71"/>
-      <c r="B69" s="97" t="s">
+      <c r="B69" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="97"/>
-      <c r="D69" s="98">
+      <c r="C69" s="135"/>
+      <c r="D69" s="139">
         <v>3</v>
       </c>
-      <c r="E69" s="98"/>
+      <c r="E69" s="139"/>
       <c r="F69" s="20"/>
       <c r="G69" s="20"/>
       <c r="H69" s="24"/>
@@ -3235,14 +3235,14 @@
     </row>
     <row r="70" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="71"/>
-      <c r="B70" s="97" t="s">
+      <c r="B70" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="C70" s="97"/>
-      <c r="D70" s="98" t="s">
+      <c r="C70" s="135"/>
+      <c r="D70" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="98"/>
+      <c r="E70" s="139"/>
       <c r="F70" s="20"/>
       <c r="G70" s="20"/>
       <c r="H70" s="24"/>
@@ -3250,14 +3250,14 @@
     </row>
     <row r="71" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="71"/>
-      <c r="B71" s="97" t="s">
+      <c r="B71" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="97"/>
-      <c r="D71" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="E71" s="98"/>
+      <c r="C71" s="135"/>
+      <c r="D71" s="139" t="s">
+        <v>41</v>
+      </c>
+      <c r="E71" s="139"/>
       <c r="F71" s="20"/>
       <c r="G71" s="20"/>
       <c r="H71" s="24"/>
@@ -3265,14 +3265,14 @@
     </row>
     <row r="72" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="71"/>
-      <c r="B72" s="97" t="s">
+      <c r="B72" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="C72" s="97"/>
-      <c r="D72" s="98">
+      <c r="C72" s="135"/>
+      <c r="D72" s="139">
         <v>4</v>
       </c>
-      <c r="E72" s="98"/>
+      <c r="E72" s="139"/>
       <c r="F72" s="20"/>
       <c r="G72" s="20"/>
       <c r="H72" s="24"/>
@@ -3280,14 +3280,14 @@
     </row>
     <row r="73" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="71"/>
-      <c r="B73" s="97" t="s">
+      <c r="B73" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="97"/>
-      <c r="D73" s="98">
+      <c r="C73" s="135"/>
+      <c r="D73" s="139">
         <v>64</v>
       </c>
-      <c r="E73" s="98"/>
+      <c r="E73" s="139"/>
       <c r="F73" s="20"/>
       <c r="G73" s="20"/>
       <c r="H73" s="24"/>
@@ -3295,14 +3295,14 @@
     </row>
     <row r="74" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="71"/>
-      <c r="B74" s="97" t="s">
+      <c r="B74" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="C74" s="97"/>
-      <c r="D74" s="103">
+      <c r="C74" s="135"/>
+      <c r="D74" s="140">
         <v>43125</v>
       </c>
-      <c r="E74" s="102"/>
+      <c r="E74" s="136"/>
       <c r="F74" s="20"/>
       <c r="G74" s="20"/>
       <c r="H74" s="24"/>
@@ -3310,14 +3310,14 @@
     </row>
     <row r="75" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="71"/>
-      <c r="B75" s="97" t="s">
+      <c r="B75" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="C75" s="97"/>
-      <c r="D75" s="102" t="s">
-        <v>87</v>
-      </c>
-      <c r="E75" s="102"/>
+      <c r="C75" s="135"/>
+      <c r="D75" s="136" t="s">
+        <v>85</v>
+      </c>
+      <c r="E75" s="136"/>
       <c r="F75" s="20"/>
       <c r="G75" s="20"/>
       <c r="H75" s="24"/>
@@ -3325,7 +3325,7 @@
     </row>
     <row r="76" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B76" s="76" t="s">
         <v>11</v>
@@ -3340,10 +3340,10 @@
         <v>14</v>
       </c>
       <c r="F76" s="78" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G76" s="78" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H76" s="78" t="s">
         <v>15</v>
@@ -3353,432 +3353,432 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="117" t="s">
+      <c r="A77" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="D77" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="F77" s="99">
+        <v>4</v>
+      </c>
+      <c r="G77" s="100"/>
+      <c r="H77" s="101" t="s">
+        <v>72</v>
+      </c>
+      <c r="I77" s="102"/>
+    </row>
+    <row r="78" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="130"/>
+      <c r="B78" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="D78" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="F78" s="99">
+        <v>4</v>
+      </c>
+      <c r="G78" s="100"/>
+      <c r="H78" s="101" t="s">
+        <v>72</v>
+      </c>
+      <c r="I78" s="102"/>
+    </row>
+    <row r="79" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="130"/>
+      <c r="B79" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="D79" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="F79" s="99">
+        <v>4</v>
+      </c>
+      <c r="G79" s="100"/>
+      <c r="H79" s="101" t="s">
+        <v>72</v>
+      </c>
+      <c r="I79" s="102"/>
+    </row>
+    <row r="80" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="131"/>
+      <c r="B80" s="96" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="D80" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="F80" s="99">
+        <v>4</v>
+      </c>
+      <c r="G80" s="100"/>
+      <c r="H80" s="101" t="s">
+        <v>72</v>
+      </c>
+      <c r="I80" s="102"/>
+    </row>
+    <row r="81" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="137" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="D81" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="F81" s="90">
+        <v>4</v>
+      </c>
+      <c r="G81" s="91"/>
+      <c r="H81" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="I81" s="92"/>
+    </row>
+    <row r="82" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="137"/>
+      <c r="B82" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="D82" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="F82" s="90">
+        <v>2</v>
+      </c>
+      <c r="G82" s="91"/>
+      <c r="H82" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="I82" s="92"/>
+    </row>
+    <row r="83" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="137"/>
+      <c r="B83" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="D83" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="F83" s="90">
+        <v>4</v>
+      </c>
+      <c r="G83" s="91"/>
+      <c r="H83" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="I83" s="92"/>
+    </row>
+    <row r="84" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="138" t="s">
         <v>88</v>
       </c>
-      <c r="B77" s="118" t="s">
+      <c r="B84" s="104" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="F84" s="107">
+        <v>4</v>
+      </c>
+      <c r="G84" s="93"/>
+      <c r="H84" s="108" t="s">
+        <v>72</v>
+      </c>
+      <c r="I84" s="109"/>
+    </row>
+    <row r="85" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="138"/>
+      <c r="B85" s="104" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="F85" s="107">
+        <v>2</v>
+      </c>
+      <c r="G85" s="93"/>
+      <c r="H85" s="108" t="s">
+        <v>72</v>
+      </c>
+      <c r="I85" s="109"/>
+    </row>
+    <row r="86" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="138"/>
+      <c r="B86" s="104" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="F86" s="107">
+        <v>4</v>
+      </c>
+      <c r="G86" s="93"/>
+      <c r="H86" s="108" t="s">
+        <v>72</v>
+      </c>
+      <c r="I86" s="109"/>
+    </row>
+    <row r="87" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="132" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" s="111" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="F87" s="112">
+        <v>4</v>
+      </c>
+      <c r="G87" s="95"/>
+      <c r="H87" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="I87" s="113"/>
+    </row>
+    <row r="88" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="133"/>
+      <c r="B88" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="119" t="s">
+      <c r="C88" s="111" t="s">
+        <v>26</v>
+      </c>
+      <c r="D88" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="F88" s="112">
+        <v>2</v>
+      </c>
+      <c r="G88" s="95"/>
+      <c r="H88" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="I88" s="113"/>
+    </row>
+    <row r="89" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="133"/>
+      <c r="B89" s="110" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" s="111" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="F89" s="112">
+        <v>2</v>
+      </c>
+      <c r="G89" s="95"/>
+      <c r="H89" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="I89" s="113"/>
+    </row>
+    <row r="90" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="133"/>
+      <c r="B90" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="D77" s="119" t="s">
-        <v>19</v>
-      </c>
-      <c r="E77" s="120" t="s">
-        <v>65</v>
-      </c>
-      <c r="F77" s="121">
+      <c r="C90" s="115" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="F90" s="116">
+        <v>2</v>
+      </c>
+      <c r="G90" s="117"/>
+      <c r="H90" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="I90" s="118"/>
+    </row>
+    <row r="91" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="134"/>
+      <c r="B91" s="114" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91" s="115" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="F91" s="116">
         <v>4</v>
       </c>
-      <c r="G77" s="122"/>
-      <c r="H77" s="123" t="s">
-        <v>74</v>
-      </c>
-      <c r="I77" s="124"/>
-    </row>
-    <row r="78" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="125"/>
-      <c r="B78" s="118" t="s">
-        <v>21</v>
-      </c>
-      <c r="C78" s="119" t="s">
-        <v>43</v>
-      </c>
-      <c r="D78" s="119" t="s">
-        <v>19</v>
-      </c>
-      <c r="E78" s="120" t="s">
-        <v>65</v>
-      </c>
-      <c r="F78" s="121">
+      <c r="G91" s="117"/>
+      <c r="H91" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="I91" s="118"/>
+    </row>
+    <row r="92" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="125" t="s">
+        <v>35</v>
+      </c>
+      <c r="B92" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="121" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" s="121" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92" s="120" t="s">
+        <v>36</v>
+      </c>
+      <c r="F92" s="122">
         <v>4</v>
       </c>
-      <c r="G78" s="122"/>
-      <c r="H78" s="123" t="s">
-        <v>74</v>
-      </c>
-      <c r="I78" s="124"/>
-    </row>
-    <row r="79" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="125"/>
-      <c r="B79" s="118" t="s">
-        <v>23</v>
-      </c>
-      <c r="C79" s="119" t="s">
-        <v>43</v>
-      </c>
-      <c r="D79" s="119" t="s">
-        <v>19</v>
-      </c>
-      <c r="E79" s="120" t="s">
-        <v>65</v>
-      </c>
-      <c r="F79" s="121">
+      <c r="G92" s="123"/>
+      <c r="H92" s="119" t="s">
+        <v>72</v>
+      </c>
+      <c r="I92" s="124"/>
+    </row>
+    <row r="93" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="125"/>
+      <c r="B93" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="121" t="s">
+        <v>37</v>
+      </c>
+      <c r="D93" s="121" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" s="120" t="s">
+        <v>37</v>
+      </c>
+      <c r="F93" s="122">
         <v>4</v>
       </c>
-      <c r="G79" s="122"/>
-      <c r="H79" s="123" t="s">
-        <v>74</v>
-      </c>
-      <c r="I79" s="124"/>
-    </row>
-    <row r="80" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="126"/>
-      <c r="B80" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="C80" s="119" t="s">
-        <v>43</v>
-      </c>
-      <c r="D80" s="119" t="s">
-        <v>19</v>
-      </c>
-      <c r="E80" s="120" t="s">
-        <v>65</v>
-      </c>
-      <c r="F80" s="121">
+      <c r="G93" s="123"/>
+      <c r="H93" s="119" t="s">
+        <v>72</v>
+      </c>
+      <c r="I93" s="124"/>
+    </row>
+    <row r="94" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="125"/>
+      <c r="B94" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="121" t="s">
+        <v>37</v>
+      </c>
+      <c r="D94" s="121" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" s="120" t="s">
+        <v>38</v>
+      </c>
+      <c r="F94" s="122">
         <v>4</v>
       </c>
-      <c r="G80" s="122"/>
-      <c r="H80" s="123" t="s">
-        <v>74</v>
-      </c>
-      <c r="I80" s="124"/>
-    </row>
-    <row r="81" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="104" t="s">
-        <v>89</v>
-      </c>
-      <c r="B81" s="105" t="s">
-        <v>18</v>
-      </c>
-      <c r="C81" s="106" t="s">
-        <v>46</v>
-      </c>
-      <c r="D81" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="E81" s="107" t="s">
-        <v>66</v>
-      </c>
-      <c r="F81" s="108">
-        <v>4</v>
-      </c>
-      <c r="G81" s="109"/>
-      <c r="H81" s="127" t="s">
-        <v>74</v>
-      </c>
-      <c r="I81" s="110"/>
-    </row>
-    <row r="82" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="104"/>
-      <c r="B82" s="105" t="s">
-        <v>18</v>
-      </c>
-      <c r="C82" s="106" t="s">
-        <v>46</v>
-      </c>
-      <c r="D82" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="E82" s="107" t="s">
-        <v>66</v>
-      </c>
-      <c r="F82" s="108">
-        <v>2</v>
-      </c>
-      <c r="G82" s="109"/>
-      <c r="H82" s="127" t="s">
-        <v>74</v>
-      </c>
-      <c r="I82" s="110"/>
-    </row>
-    <row r="83" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="104"/>
-      <c r="B83" s="105" t="s">
-        <v>18</v>
-      </c>
-      <c r="C83" s="106" t="s">
-        <v>46</v>
-      </c>
-      <c r="D83" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="E83" s="107" t="s">
-        <v>66</v>
-      </c>
-      <c r="F83" s="108">
-        <v>4</v>
-      </c>
-      <c r="G83" s="109"/>
-      <c r="H83" s="127" t="s">
-        <v>74</v>
-      </c>
-      <c r="I83" s="110"/>
-    </row>
-    <row r="84" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="128" t="s">
-        <v>90</v>
-      </c>
-      <c r="B84" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="C84" s="130" t="s">
-        <v>27</v>
-      </c>
-      <c r="D84" s="130" t="s">
-        <v>19</v>
-      </c>
-      <c r="E84" s="131" t="s">
-        <v>67</v>
-      </c>
-      <c r="F84" s="132">
-        <v>4</v>
-      </c>
-      <c r="G84" s="114"/>
-      <c r="H84" s="133" t="s">
-        <v>74</v>
-      </c>
-      <c r="I84" s="134"/>
-    </row>
-    <row r="85" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="128"/>
-      <c r="B85" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="C85" s="130" t="s">
-        <v>27</v>
-      </c>
-      <c r="D85" s="130" t="s">
-        <v>19</v>
-      </c>
-      <c r="E85" s="131" t="s">
-        <v>67</v>
-      </c>
-      <c r="F85" s="132">
-        <v>2</v>
-      </c>
-      <c r="G85" s="114"/>
-      <c r="H85" s="133" t="s">
-        <v>74</v>
-      </c>
-      <c r="I85" s="134"/>
-    </row>
-    <row r="86" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="128"/>
-      <c r="B86" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="C86" s="130" t="s">
-        <v>27</v>
-      </c>
-      <c r="D86" s="130" t="s">
-        <v>19</v>
-      </c>
-      <c r="E86" s="131" t="s">
-        <v>67</v>
-      </c>
-      <c r="F86" s="132">
-        <v>4</v>
-      </c>
-      <c r="G86" s="114"/>
-      <c r="H86" s="133" t="s">
-        <v>74</v>
-      </c>
-      <c r="I86" s="134"/>
-    </row>
-    <row r="87" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="135" t="s">
-        <v>91</v>
-      </c>
-      <c r="B87" s="136" t="s">
-        <v>25</v>
-      </c>
-      <c r="C87" s="137" t="s">
-        <v>27</v>
-      </c>
-      <c r="D87" s="137" t="s">
-        <v>19</v>
-      </c>
-      <c r="E87" s="115" t="s">
-        <v>68</v>
-      </c>
-      <c r="F87" s="138">
-        <v>4</v>
-      </c>
-      <c r="G87" s="116"/>
-      <c r="H87" s="116" t="s">
-        <v>74</v>
-      </c>
-      <c r="I87" s="139"/>
-    </row>
-    <row r="88" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="140"/>
-      <c r="B88" s="136" t="s">
-        <v>18</v>
-      </c>
-      <c r="C88" s="137" t="s">
-        <v>27</v>
-      </c>
-      <c r="D88" s="137" t="s">
-        <v>19</v>
-      </c>
-      <c r="E88" s="115" t="s">
-        <v>68</v>
-      </c>
-      <c r="F88" s="138">
-        <v>2</v>
-      </c>
-      <c r="G88" s="116"/>
-      <c r="H88" s="116" t="s">
-        <v>74</v>
-      </c>
-      <c r="I88" s="139"/>
-    </row>
-    <row r="89" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="140"/>
-      <c r="B89" s="136" t="s">
-        <v>18</v>
-      </c>
-      <c r="C89" s="137" t="s">
-        <v>27</v>
-      </c>
-      <c r="D89" s="137" t="s">
-        <v>19</v>
-      </c>
-      <c r="E89" s="115" t="s">
-        <v>68</v>
-      </c>
-      <c r="F89" s="138">
-        <v>2</v>
-      </c>
-      <c r="G89" s="116"/>
-      <c r="H89" s="116" t="s">
-        <v>74</v>
-      </c>
-      <c r="I89" s="139"/>
-    </row>
-    <row r="90" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="140"/>
-      <c r="B90" s="141" t="s">
-        <v>44</v>
-      </c>
-      <c r="C90" s="142" t="s">
-        <v>27</v>
-      </c>
-      <c r="D90" s="142" t="s">
-        <v>19</v>
-      </c>
-      <c r="E90" s="115" t="s">
-        <v>68</v>
-      </c>
-      <c r="F90" s="143">
-        <v>2</v>
-      </c>
-      <c r="G90" s="144"/>
-      <c r="H90" s="116" t="s">
-        <v>74</v>
-      </c>
-      <c r="I90" s="145"/>
-    </row>
-    <row r="91" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="146"/>
-      <c r="B91" s="141" t="s">
-        <v>25</v>
-      </c>
-      <c r="C91" s="142" t="s">
-        <v>27</v>
-      </c>
-      <c r="D91" s="142" t="s">
-        <v>19</v>
-      </c>
-      <c r="E91" s="115" t="s">
-        <v>68</v>
-      </c>
-      <c r="F91" s="143">
-        <v>4</v>
-      </c>
-      <c r="G91" s="144"/>
-      <c r="H91" s="116" t="s">
-        <v>74</v>
-      </c>
-      <c r="I91" s="145"/>
-    </row>
-    <row r="92" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="148" t="s">
-        <v>36</v>
-      </c>
-      <c r="B92" s="149" t="s">
-        <v>18</v>
-      </c>
-      <c r="C92" s="150" t="s">
-        <v>37</v>
-      </c>
-      <c r="D92" s="150" t="s">
-        <v>19</v>
-      </c>
-      <c r="E92" s="149" t="s">
-        <v>37</v>
-      </c>
-      <c r="F92" s="151">
-        <v>4</v>
-      </c>
-      <c r="G92" s="152"/>
-      <c r="H92" s="147" t="s">
-        <v>74</v>
-      </c>
-      <c r="I92" s="153"/>
-    </row>
-    <row r="93" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="148"/>
-      <c r="B93" s="149" t="s">
-        <v>18</v>
-      </c>
-      <c r="C93" s="150" t="s">
-        <v>38</v>
-      </c>
-      <c r="D93" s="150" t="s">
-        <v>19</v>
-      </c>
-      <c r="E93" s="149" t="s">
-        <v>38</v>
-      </c>
-      <c r="F93" s="151">
-        <v>4</v>
-      </c>
-      <c r="G93" s="152"/>
-      <c r="H93" s="147" t="s">
-        <v>74</v>
-      </c>
-      <c r="I93" s="153"/>
-    </row>
-    <row r="94" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="148"/>
-      <c r="B94" s="149" t="s">
-        <v>18</v>
-      </c>
-      <c r="C94" s="150" t="s">
-        <v>38</v>
-      </c>
-      <c r="D94" s="150" t="s">
-        <v>19</v>
-      </c>
-      <c r="E94" s="149" t="s">
-        <v>39</v>
-      </c>
-      <c r="F94" s="151">
-        <v>4</v>
-      </c>
-      <c r="G94" s="152"/>
-      <c r="H94" s="147" t="s">
-        <v>74</v>
-      </c>
-      <c r="I94" s="153"/>
+      <c r="G94" s="123"/>
+      <c r="H94" s="119" t="s">
+        <v>72</v>
+      </c>
+      <c r="I94" s="124"/>
     </row>
     <row r="95" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B95" s="58"/>
       <c r="C95" s="58"/>
@@ -3797,7 +3797,7 @@
       <c r="C96" s="24"/>
       <c r="D96" s="62"/>
       <c r="E96" s="63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F96" s="64">
         <f>SUM(F77:F95)</f>
@@ -3813,47 +3813,14 @@
   </sheetData>
   <autoFilter ref="A10:I33" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="65">
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A49:A56"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A67:I67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B2:C2"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B8:C8"/>
@@ -3870,14 +3837,47 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A49:A56"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A67:I67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3901,7 +3901,7 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3909,7 +3909,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3945,152 +3945,152 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="101" t="s">
-        <v>30</v>
+      <c r="C3" s="153" t="s">
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" ht="14.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="153"/>
+      <c r="D4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7" ht="14.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="101"/>
-      <c r="D4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G4" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="3:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="101"/>
+      <c r="C5" s="153"/>
       <c r="D5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G5" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="3:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="101"/>
+      <c r="C6" s="153"/>
       <c r="D6" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G6" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="3:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="101"/>
+      <c r="C7" s="153"/>
       <c r="D7" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G7" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="3:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="101"/>
+      <c r="C8" s="153"/>
       <c r="D8" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G8" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="3:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="101"/>
+      <c r="C9" s="153"/>
       <c r="D9" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G9" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="3:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="101"/>
+      <c r="C10" s="153"/>
       <c r="D10" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G10" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="3:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="101"/>
+      <c r="C11" s="153"/>
       <c r="D11" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="3:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="101"/>
+      <c r="C12" s="153"/>
       <c r="D12" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G12" s="7">
         <v>3</v>
@@ -4098,62 +4098,62 @@
     </row>
     <row r="13" spans="3:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="100" t="s">
-        <v>77</v>
+      <c r="C15" s="152" t="s">
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="152"/>
+      <c r="D16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="100"/>
-      <c r="D16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="F16" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G16" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="3:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="100"/>
+      <c r="C17" s="152"/>
       <c r="D17" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G17" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="3:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="100"/>
+      <c r="C18" s="152"/>
       <c r="D18" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G18" s="7">
         <v>1</v>
@@ -4174,131 +4174,131 @@
       <c r="G20" s="17"/>
     </row>
     <row r="21" spans="3:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="100" t="s">
-        <v>78</v>
+      <c r="C21" s="152" t="s">
+        <v>76</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="3:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="100"/>
+      <c r="C22" s="152"/>
       <c r="D22" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G22" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="3:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="100"/>
+      <c r="C23" s="152"/>
       <c r="D23" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G23" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="3:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="100"/>
+      <c r="C24" s="152"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="17"/>
     </row>
     <row r="26" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="100" t="s">
-        <v>79</v>
+      <c r="C26" s="152" t="s">
+        <v>77</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="3:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="100"/>
+      <c r="C27" s="152"/>
       <c r="D27" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G27" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="3:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="100"/>
+      <c r="C28" s="152"/>
       <c r="D28" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G28" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="3:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="100"/>
+      <c r="C29" s="152"/>
       <c r="D29" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G29" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="100"/>
+      <c r="C30" s="152"/>
       <c r="D30" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G30" s="11">
         <v>3</v>
